--- a/Planilhas/Planilha backlog.xlsx
+++ b/Planilhas/Planilha backlog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="31">
   <si>
     <t>NOME DA TAREFA</t>
   </si>
@@ -33,9 +33,6 @@
     <t>STATUS</t>
   </si>
   <si>
-    <t>PONTOS</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -70,9 +67,6 @@
   </si>
   <si>
     <t>O banco de dados deve ter os dados do usuario, sensores, Onibus, Linha</t>
-  </si>
-  <si>
-    <t>Não</t>
   </si>
   <si>
     <t>SIM</t>
@@ -112,12 +106,6 @@
     <t>MEDIA</t>
   </si>
   <si>
-    <t>Não Iniciado</t>
-  </si>
-  <si>
-    <t>Não iniciado</t>
-  </si>
-  <si>
     <t>Andamento</t>
   </si>
   <si>
@@ -125,12 +113,6 @@
   </si>
   <si>
     <t>COMPLETO</t>
-  </si>
-  <si>
-    <t>ANDAMENTO</t>
-  </si>
-  <si>
-    <t>NÃO INICIADO</t>
   </si>
 </sst>
 </file>
@@ -522,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,396 +533,609 @@
       <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="10"/>
+      <c r="F1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>5</v>
-      </c>
       <c r="G1" s="10"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="3">
-        <v>10</v>
-      </c>
+      <c r="E3" s="10"/>
       <c r="F3" s="3">
         <v>1</v>
       </c>
     </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E4" s="10"/>
+    </row>
     <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="2">
-        <v>10</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E5" s="10"/>
       <c r="F5" s="2">
         <v>2</v>
       </c>
     </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E6" s="10"/>
+    </row>
     <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="2">
-        <v>10</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E7" s="10"/>
       <c r="F7" s="2">
         <v>3</v>
       </c>
     </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E8" s="10"/>
+    </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="2">
-        <v>10</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="E9" s="10"/>
       <c r="F9" s="2">
         <v>4</v>
       </c>
     </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E10" s="10"/>
+    </row>
     <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="2">
-        <v>5</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E11" s="10"/>
       <c r="F11" s="2">
         <v>5</v>
       </c>
     </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E12" s="10"/>
+    </row>
     <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="2">
-        <v>5</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E13" s="10"/>
       <c r="F13" s="2">
         <v>6</v>
       </c>
     </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E14" s="10"/>
+    </row>
     <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="2">
-        <v>10</v>
-      </c>
+      <c r="E15" s="10"/>
       <c r="F15" s="2">
         <v>7</v>
       </c>
     </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E16" s="10"/>
+    </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="2">
-        <v>10</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E17" s="10"/>
       <c r="F17" s="2">
         <v>8</v>
       </c>
     </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E18" s="10"/>
+    </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="2">
-        <v>10</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E19" s="10"/>
       <c r="F19" s="2">
         <v>9</v>
       </c>
     </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E20" s="10"/>
+    </row>
     <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="2">
-        <v>10</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E21" s="10"/>
       <c r="F21" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
+      <c r="E22" s="10"/>
     </row>
     <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="2">
-        <v>10</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E23" s="10"/>
       <c r="F23" s="2">
         <v>11</v>
       </c>
     </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E24" s="10"/>
+    </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" s="2">
-        <v>5</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="E25" s="10"/>
       <c r="F25" s="2">
         <v>12</v>
       </c>
     </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E26" s="10"/>
+    </row>
     <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" s="2">
-        <v>10</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E27" s="10"/>
       <c r="F27" s="2">
         <v>13</v>
       </c>
     </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E28" s="10"/>
+    </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" s="2">
-        <v>10</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E29" s="10"/>
       <c r="F29" s="2">
         <v>14</v>
       </c>
     </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E30" s="10"/>
+    </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E31" s="2">
-        <v>10</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E31" s="10"/>
       <c r="F31" s="2">
         <v>15</v>
       </c>
     </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E32" s="10"/>
+    </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E33" s="2">
-        <v>10</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E33" s="10"/>
       <c r="F33" s="2">
         <v>16</v>
       </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E34" s="10"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E35" s="2">
-        <v>10</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E35" s="10"/>
       <c r="F35" s="2">
         <v>17</v>
       </c>
     </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E36" s="10"/>
+    </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E37" s="2">
-        <v>10</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E37" s="10"/>
       <c r="F37" s="2">
         <v>18</v>
       </c>
     </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E38" s="10"/>
+    </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E39" s="2">
-        <v>10</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E39" s="10"/>
       <c r="F39" s="2">
         <v>19</v>
       </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E40" s="10"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E41" s="10"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E42" s="10"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E43" s="10"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E44" s="10"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E45" s="10"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E46" s="10"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E47" s="10"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E48" s="10"/>
+    </row>
+    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E49" s="10"/>
+    </row>
+    <row r="50" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E50" s="10"/>
+    </row>
+    <row r="51" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E51" s="10"/>
+    </row>
+    <row r="52" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E52" s="10"/>
+    </row>
+    <row r="53" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E53" s="10"/>
+    </row>
+    <row r="54" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E54" s="10"/>
+    </row>
+    <row r="55" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E55" s="10"/>
+    </row>
+    <row r="56" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E56" s="10"/>
+    </row>
+    <row r="57" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E57" s="10"/>
+    </row>
+    <row r="58" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E58" s="10"/>
+    </row>
+    <row r="59" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E59" s="10"/>
+    </row>
+    <row r="60" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E60" s="10"/>
+    </row>
+    <row r="61" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E61" s="10"/>
+    </row>
+    <row r="62" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E62" s="10"/>
+    </row>
+    <row r="63" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E63" s="10"/>
+    </row>
+    <row r="64" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E64" s="10"/>
+    </row>
+    <row r="65" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E65" s="10"/>
+    </row>
+    <row r="66" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E66" s="10"/>
+    </row>
+    <row r="67" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E67" s="10"/>
+    </row>
+    <row r="68" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E68" s="10"/>
+    </row>
+    <row r="69" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E69" s="10"/>
+    </row>
+    <row r="70" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E70" s="10"/>
+    </row>
+    <row r="71" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E71" s="10"/>
+    </row>
+    <row r="72" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E72" s="10"/>
+    </row>
+    <row r="73" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E73" s="10"/>
+    </row>
+    <row r="74" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E74" s="10"/>
+    </row>
+    <row r="75" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E75" s="10"/>
+    </row>
+    <row r="76" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E76" s="10"/>
+    </row>
+    <row r="77" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E77" s="10"/>
+    </row>
+    <row r="78" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E78" s="10"/>
+    </row>
+    <row r="79" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E79" s="10"/>
+    </row>
+    <row r="80" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E80" s="10"/>
+    </row>
+    <row r="81" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E81" s="10"/>
+    </row>
+    <row r="82" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E82" s="10"/>
+    </row>
+    <row r="83" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E83" s="10"/>
+    </row>
+    <row r="84" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E84" s="10"/>
+    </row>
+    <row r="85" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E85" s="10"/>
+    </row>
+    <row r="86" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E86" s="10"/>
+    </row>
+    <row r="87" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E87" s="10"/>
+    </row>
+    <row r="88" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E88" s="10"/>
+    </row>
+    <row r="89" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E89" s="10"/>
+    </row>
+    <row r="90" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E90" s="10"/>
+    </row>
+    <row r="91" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E91" s="10"/>
+    </row>
+    <row r="92" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E92" s="10"/>
+    </row>
+    <row r="93" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E93" s="10"/>
+    </row>
+    <row r="94" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E94" s="10"/>
+    </row>
+    <row r="95" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E95" s="10"/>
+    </row>
+    <row r="96" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E96" s="10"/>
+    </row>
+    <row r="97" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E97" s="10"/>
+    </row>
+    <row r="98" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E98" s="10"/>
+    </row>
+    <row r="99" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E99" s="10"/>
+    </row>
+    <row r="100" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E100" s="10"/>
+    </row>
+    <row r="101" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E101" s="10"/>
+    </row>
+    <row r="102" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E102" s="10"/>
+    </row>
+    <row r="103" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E103" s="10"/>
+    </row>
+    <row r="104" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E104" s="10"/>
+    </row>
+    <row r="105" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E105" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
